--- a/工作宝客户端测试文档/竞品管理测试文档.xlsx
+++ b/工作宝客户端测试文档/竞品管理测试文档.xlsx
@@ -6,13 +6,13 @@
     <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
   </bookViews>
   <sheets>
-    <sheet name="工作表 1 - 竞品管理测试文档" sheetId="1" r:id="rId4"/>
+    <sheet name="工作表 1 - 今日销售测试文档" sheetId="1" r:id="rId4"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="30">
   <si>
     <t>竞品管理测试文档</t>
   </si>
@@ -27,6 +27,81 @@
   </si>
   <si>
     <t>验收结果</t>
+  </si>
+  <si>
+    <t>竞品管理上报</t>
+  </si>
+  <si>
+    <t>客户名称的选择，点击进行客户选择</t>
+  </si>
+  <si>
+    <t>进入客户列表，选择后显示显示产品列表、订单详情。</t>
+  </si>
+  <si>
+    <t>正常</t>
+  </si>
+  <si>
+    <t>添加产品列表</t>
+  </si>
+  <si>
+    <t>添加产品列表后，显示在订单详情里面，右下角显示订单的数量。</t>
+  </si>
+  <si>
+    <t>产品列表的查询，在产品列表的右侧搜索框进行搜索。</t>
+  </si>
+  <si>
+    <t>产品列表显示包含搜索的关键字的产品</t>
+  </si>
+  <si>
+    <t>订单详情列表的删除。</t>
+  </si>
+  <si>
+    <t>左滑可删除所选的订单</t>
+  </si>
+  <si>
+    <t>竞品管理的表单上报，选择客户，填写备注信息（可选项，注意字数限制1000以内）、添加或产品列表里面的产品</t>
+  </si>
+  <si>
+    <t>竞品管理上报成功</t>
+  </si>
+  <si>
+    <t>竞品管理列表</t>
+  </si>
+  <si>
+    <t>点击进入竞品管理列表</t>
+  </si>
+  <si>
+    <t>列表正常显示</t>
+  </si>
+  <si>
+    <t>竞品管理列表刷新</t>
+  </si>
+  <si>
+    <t>点击上拉或下拉进行列表的刷新</t>
+  </si>
+  <si>
+    <t>点击下拉刷新列表，显示第一页内容，上拉加载更多内容，为下一页。</t>
+  </si>
+  <si>
+    <t>竞品管理列表查询</t>
+  </si>
+  <si>
+    <t>点击部门查询进行查询</t>
+  </si>
+  <si>
+    <t>显示所选部门的竞品管理内容</t>
+  </si>
+  <si>
+    <t>点击客户类型进行查询</t>
+  </si>
+  <si>
+    <t>显示所选客户类型的竞品管理内容</t>
+  </si>
+  <si>
+    <t>点击筛选条件(客户名称、姓名、开始日期、结束日期)进行查询</t>
+  </si>
+  <si>
+    <t>显示所选条件的竞品管理内容</t>
   </si>
 </sst>
 </file>
@@ -36,7 +111,7 @@
   <numFmts count="1">
     <numFmt numFmtId="0" formatCode="General"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -48,30 +123,29 @@
       <name val="Helvetica Neue"/>
     </font>
     <font>
-      <b val="1"/>
-      <sz val="10"/>
-      <color indexed="9"/>
+      <sz val="13"/>
+      <color indexed="8"/>
       <name val="Helvetica Neue"/>
     </font>
     <font>
       <b val="1"/>
       <sz val="10"/>
-      <color indexed="10"/>
+      <color indexed="12"/>
+      <name val="Helvetica Neue"/>
+    </font>
+    <font>
+      <b val="1"/>
+      <sz val="10"/>
+      <color indexed="13"/>
       <name val="Helvetica Neue"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="10"/>
-        <bgColor auto="1"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -85,8 +159,20 @@
         <bgColor auto="1"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="12"/>
+        <bgColor auto="1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="15"/>
+        <bgColor auto="1"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="8">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -96,6 +182,41 @@
     </border>
     <border>
       <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="11"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="11"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color indexed="11"/>
       </left>
       <right style="thin">
@@ -105,7 +226,7 @@
         <color indexed="11"/>
       </top>
       <bottom style="thin">
-        <color indexed="12"/>
+        <color indexed="14"/>
       </bottom>
       <diagonal/>
     </border>
@@ -114,10 +235,21 @@
         <color indexed="11"/>
       </left>
       <right style="thin">
-        <color indexed="12"/>
+        <color indexed="10"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="11"/>
+      </left>
+      <right style="thin">
+        <color indexed="14"/>
       </right>
       <top style="thin">
-        <color indexed="12"/>
+        <color indexed="14"/>
       </top>
       <bottom style="thin">
         <color indexed="11"/>
@@ -126,13 +258,13 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="12"/>
+        <color indexed="14"/>
       </left>
       <right style="thin">
         <color indexed="11"/>
       </right>
       <top style="thin">
-        <color indexed="12"/>
+        <color indexed="14"/>
       </top>
       <bottom style="thin">
         <color indexed="11"/>
@@ -147,7 +279,7 @@
         <color indexed="11"/>
       </right>
       <top style="thin">
-        <color indexed="12"/>
+        <color indexed="14"/>
       </top>
       <bottom style="thin">
         <color indexed="11"/>
@@ -159,7 +291,7 @@
         <color indexed="11"/>
       </left>
       <right style="thin">
-        <color indexed="12"/>
+        <color indexed="14"/>
       </right>
       <top style="thin">
         <color indexed="11"/>
@@ -171,7 +303,7 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="12"/>
+        <color indexed="14"/>
       </left>
       <right style="thin">
         <color indexed="11"/>
@@ -196,6 +328,19 @@
       </top>
       <bottom style="thin">
         <color indexed="11"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="11"/>
+      </left>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="10"/>
       </bottom>
       <diagonal/>
     </border>
@@ -205,41 +350,62 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -259,9 +425,11 @@
       <rgbColor rgb="ffff00ff"/>
       <rgbColor rgb="ff00ffff"/>
       <rgbColor rgb="ff000000"/>
+      <rgbColor rgb="ffffffff"/>
+      <rgbColor rgb="ffaaaaaa"/>
+      <rgbColor rgb="ffbfbfbf"/>
       <rgbColor rgb="fffefffe"/>
       <rgbColor rgb="ff004c7f"/>
-      <rgbColor rgb="ffbfbfbf"/>
       <rgbColor rgb="ff3f3f3f"/>
       <rgbColor rgb="ffececec"/>
     </indexedColors>
@@ -280,10 +448,10 @@
         <a:srgbClr val="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="5E5E5E"/>
+        <a:srgbClr val="A7A7A7"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="D5D5D5"/>
+        <a:srgbClr val="535353"/>
       </a:lt2>
       <a:accent1>
         <a:srgbClr val="00A2FF"/>
@@ -460,11 +628,14 @@
     <a:spDef>
       <a:spPr>
         <a:solidFill>
-          <a:schemeClr val="accent1"/>
+          <a:srgbClr val="FFFFFF"/>
         </a:solidFill>
-        <a:ln w="12700" cap="flat">
-          <a:noFill/>
-          <a:miter lim="400000"/>
+        <a:ln w="25400" cap="flat">
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
         </a:ln>
         <a:effectLst/>
         <a:sp3d/>
@@ -473,27 +644,27 @@
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
-        <a:defPPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="457200" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
-          <a:lnSpc>
-            <a:spcPct val="100000"/>
-          </a:lnSpc>
-          <a:spcBef>
-            <a:spcPts val="0"/>
-          </a:spcBef>
-          <a:spcAft>
-            <a:spcPts val="0"/>
-          </a:spcAft>
-          <a:buClrTx/>
-          <a:buSzTx/>
-          <a:buFontTx/>
-          <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none" kumimoji="0" normalizeH="0">
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:solidFill>
-              <a:srgbClr val="FFFFFF"/>
+        <a:defPPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
             </a:solidFill>
             <a:effectLst/>
             <a:uFillTx/>
@@ -750,10 +921,10 @@
         <a:noFill/>
         <a:ln w="25400" cap="flat">
           <a:solidFill>
-            <a:srgbClr val="000000"/>
+            <a:schemeClr val="accent1"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="400000"/>
+          <a:round/>
         </a:ln>
         <a:effectLst/>
         <a:sp3d/>
@@ -1044,7 +1215,7 @@
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
-        <a:defPPr marL="0" marR="0" indent="0" algn="l" defTabSz="457200" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
+        <a:defPPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
           <a:lnSpc>
             <a:spcPct val="100000"/>
           </a:lnSpc>
@@ -1325,11 +1496,9 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:D23"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
-      <pane topLeftCell="B3" xSplit="1" ySplit="2" activePane="bottomRight" state="frozen"/>
-    </sheetView>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
@@ -1337,159 +1506,244 @@
     <col min="2" max="2" width="33.3516" style="1" customWidth="1"/>
     <col min="3" max="3" width="33.3516" style="1" customWidth="1"/>
     <col min="4" max="4" width="33.3516" style="1" customWidth="1"/>
-    <col min="5" max="256" width="16.3516" style="1" customWidth="1"/>
+    <col min="5" max="5" width="16.3516" style="1" customWidth="1"/>
+    <col min="6" max="256" width="16.3516" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="31" customHeight="1">
       <c r="A1" t="s" s="2">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="4"/>
     </row>
     <row r="2" ht="22.5" customHeight="1">
-      <c r="A2" t="s" s="3">
+      <c r="A2" t="s" s="5">
         <v>1</v>
       </c>
-      <c r="B2" t="s" s="3">
+      <c r="B2" t="s" s="5">
         <v>2</v>
       </c>
-      <c r="C2" t="s" s="3">
+      <c r="C2" t="s" s="5">
         <v>3</v>
       </c>
-      <c r="D2" t="s" s="3">
+      <c r="D2" t="s" s="5">
         <v>4</v>
       </c>
+      <c r="E2" s="6"/>
     </row>
     <row r="3" ht="20.2" customHeight="1">
-      <c r="A3" s="4"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
+      <c r="A3" t="s" s="7">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s" s="8">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s" s="9">
+        <v>7</v>
+      </c>
+      <c r="D3" t="s" s="9">
+        <v>8</v>
+      </c>
+      <c r="E3" s="6"/>
     </row>
     <row r="4" ht="19.95" customHeight="1">
-      <c r="A4" s="7"/>
-      <c r="B4" s="8"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
+      <c r="A4" s="10"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="6"/>
     </row>
     <row r="5" ht="19.95" customHeight="1">
-      <c r="A5" s="7"/>
-      <c r="B5" s="10"/>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11"/>
+      <c r="A5" s="10"/>
+      <c r="B5" t="s" s="13">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s" s="14">
+        <v>10</v>
+      </c>
+      <c r="D5" t="s" s="14">
+        <v>8</v>
+      </c>
+      <c r="E5" s="6"/>
     </row>
     <row r="6" ht="19.95" customHeight="1">
-      <c r="A6" s="7"/>
-      <c r="B6" s="8"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
+      <c r="A6" s="10"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="6"/>
     </row>
     <row r="7" ht="19.95" customHeight="1">
-      <c r="A7" s="7"/>
-      <c r="B7" s="10"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
+      <c r="A7" s="10"/>
+      <c r="B7" t="s" s="13">
+        <v>11</v>
+      </c>
+      <c r="C7" t="s" s="14">
+        <v>12</v>
+      </c>
+      <c r="D7" t="s" s="14">
+        <v>8</v>
+      </c>
+      <c r="E7" s="6"/>
     </row>
     <row r="8" ht="19.95" customHeight="1">
-      <c r="A8" s="7"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
+      <c r="A8" s="10"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="6"/>
     </row>
     <row r="9" ht="19.95" customHeight="1">
-      <c r="A9" s="7"/>
-      <c r="B9" s="10"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
+      <c r="A9" s="10"/>
+      <c r="B9" t="s" s="13">
+        <v>13</v>
+      </c>
+      <c r="C9" t="s" s="14">
+        <v>14</v>
+      </c>
+      <c r="D9" t="s" s="14">
+        <v>8</v>
+      </c>
+      <c r="E9" s="6"/>
     </row>
     <row r="10" ht="19.95" customHeight="1">
-      <c r="A10" s="7"/>
-      <c r="B10" s="8"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
+      <c r="A10" s="10"/>
+      <c r="B10" t="s" s="15">
+        <v>15</v>
+      </c>
+      <c r="C10" t="s" s="16">
+        <v>16</v>
+      </c>
+      <c r="D10" t="s" s="16">
+        <v>8</v>
+      </c>
+      <c r="E10" s="6"/>
     </row>
     <row r="11" ht="19.95" customHeight="1">
-      <c r="A11" s="7"/>
-      <c r="B11" s="10"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="11"/>
+      <c r="A11" s="10"/>
+      <c r="B11" s="11"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="6"/>
     </row>
     <row r="12" ht="19.95" customHeight="1">
-      <c r="A12" s="7"/>
-      <c r="B12" s="8"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
+      <c r="A12" s="10"/>
+      <c r="B12" s="11"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="6"/>
     </row>
     <row r="13" ht="19.95" customHeight="1">
-      <c r="A13" s="7"/>
-      <c r="B13" s="10"/>
-      <c r="C13" s="11"/>
-      <c r="D13" s="11"/>
+      <c r="A13" t="s" s="17">
+        <v>17</v>
+      </c>
+      <c r="B13" t="s" s="13">
+        <v>18</v>
+      </c>
+      <c r="C13" t="s" s="14">
+        <v>19</v>
+      </c>
+      <c r="D13" t="s" s="14">
+        <v>8</v>
+      </c>
+      <c r="E13" s="6"/>
     </row>
     <row r="14" ht="19.95" customHeight="1">
-      <c r="A14" s="7"/>
-      <c r="B14" s="8"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
+      <c r="A14" t="s" s="17">
+        <v>20</v>
+      </c>
+      <c r="B14" t="s" s="15">
+        <v>21</v>
+      </c>
+      <c r="C14" t="s" s="16">
+        <v>22</v>
+      </c>
+      <c r="D14" t="s" s="16">
+        <v>8</v>
+      </c>
+      <c r="E14" s="6"/>
     </row>
     <row r="15" ht="19.95" customHeight="1">
-      <c r="A15" s="7"/>
-      <c r="B15" s="10"/>
-      <c r="C15" s="11"/>
-      <c r="D15" s="11"/>
+      <c r="A15" s="10"/>
+      <c r="B15" s="11"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="6"/>
     </row>
     <row r="16" ht="19.95" customHeight="1">
-      <c r="A16" s="7"/>
-      <c r="B16" s="8"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
+      <c r="A16" t="s" s="17">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s" s="15">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s" s="16">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s" s="16">
+        <v>8</v>
+      </c>
+      <c r="E16" s="6"/>
     </row>
     <row r="17" ht="19.95" customHeight="1">
-      <c r="A17" s="7"/>
-      <c r="B17" s="10"/>
-      <c r="C17" s="11"/>
-      <c r="D17" s="11"/>
+      <c r="A17" s="10"/>
+      <c r="B17" t="s" s="13">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s" s="14">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s" s="14">
+        <v>8</v>
+      </c>
+      <c r="E17" s="6"/>
     </row>
     <row r="18" ht="19.95" customHeight="1">
-      <c r="A18" s="7"/>
-      <c r="B18" s="8"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9"/>
+      <c r="A18" s="10"/>
+      <c r="B18" t="s" s="15">
+        <v>28</v>
+      </c>
+      <c r="C18" t="s" s="16">
+        <v>29</v>
+      </c>
+      <c r="D18" t="s" s="16">
+        <v>8</v>
+      </c>
+      <c r="E18" s="6"/>
     </row>
     <row r="19" ht="19.95" customHeight="1">
-      <c r="A19" s="7"/>
-      <c r="B19" s="10"/>
-      <c r="C19" s="11"/>
-      <c r="D19" s="11"/>
-    </row>
-    <row r="20" ht="19.95" customHeight="1">
-      <c r="A20" s="7"/>
-      <c r="B20" s="8"/>
-      <c r="C20" s="9"/>
-      <c r="D20" s="9"/>
-    </row>
-    <row r="21" ht="19.95" customHeight="1">
-      <c r="A21" s="7"/>
-      <c r="B21" s="10"/>
-      <c r="C21" s="11"/>
-      <c r="D21" s="11"/>
-    </row>
-    <row r="22" ht="19.95" customHeight="1">
-      <c r="A22" s="7"/>
-      <c r="B22" s="8"/>
-      <c r="C22" s="9"/>
-      <c r="D22" s="9"/>
-    </row>
-    <row r="23" ht="19.95" customHeight="1">
-      <c r="A23" s="7"/>
-      <c r="B23" s="10"/>
-      <c r="C23" s="11"/>
-      <c r="D23" s="11"/>
+      <c r="A19" s="10"/>
+      <c r="B19" s="11"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="18"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="22">
+    <mergeCell ref="A16:A19"/>
+    <mergeCell ref="B10:B12"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="C10:C12"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="D10:D12"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="A3:A12"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C3:C4"/>
     <mergeCell ref="A1:D1"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>
